--- a/data/raw/Trip Nov-Dec 2023 tropwater data.xlsx
+++ b/data/raw/Trip Nov-Dec 2023 tropwater data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebastianhoefer/Documents/Work/Postdoc/JCU/Tropwater_waterholes/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45015EA2-B12B-084E-823B-E33148B844BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19B268D8-1F37-F844-A32C-DF6C54CBC489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="500" windowWidth="28720" windowHeight="15720" activeTab="3" xr2:uid="{2A756C81-30DF-4D92-98B7-46CD7BAC05E3}"/>
   </bookViews>
@@ -5898,7 +5898,7 @@
     <t xml:space="preserve">Black kite </t>
   </si>
   <si>
-    <t>road</t>
+    <t>Road</t>
   </si>
 </sst>
 </file>
@@ -6305,10 +6305,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -28864,7 +28860,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
